--- a/data/trans_camb/P24_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_4_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +666,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
         </is>
       </c>
     </row>
@@ -685,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +734,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 11,05</t>
+          <t>-16,13; -2,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 4,1</t>
+          <t>-9,37; 12,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,86</t>
+          <t>-16,13; -2,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,14</t>
+          <t>-10,37; 10,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,64</t>
+          <t>-10,31; -1,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 6,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; -1,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 4,25</t>
         </is>
       </c>
     </row>
@@ -738,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,37 +802,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,08%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-27,1%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-13,45%</t>
         </is>
       </c>
     </row>
@@ -811,7 +880,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,87; 717,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +890,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,44; 392,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 566,65</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 323,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -853,42 +937,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,76</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
         </is>
       </c>
     </row>
@@ -906,42 +1005,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 13,63</t>
+          <t>1,68; 15,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,72</t>
+          <t>0,0; 11,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 8,2</t>
+          <t>0,0; 6,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 13,53</t>
+          <t>-7,26; 14,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 1,92</t>
+          <t>-4,21; 21,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,29</t>
+          <t>-13,4; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,61</t>
+          <t>-0,45; 26,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,78</t>
+          <t>-3,89; 7,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 15,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 4,72</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 13,58</t>
         </is>
       </c>
     </row>
@@ -969,32 +1083,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>155,49%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,46%</t>
+          <t>150,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>-47,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>298,04%</t>
+          <t>200,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>42,27%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>253,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>174,28%</t>
         </is>
       </c>
     </row>
@@ -1027,27 +1156,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,88; 1086,63</t>
+          <t>-82,95; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,62; 1174,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 825,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 1794,4</t>
+          <t>-41,52; 1346,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-36,45; 1571,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,71; 1638,4</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 0,0</t>
+          <t>-12,86; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,17</t>
+          <t>-9,11; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 6,37</t>
+          <t>-5,44; 9,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 3,01</t>
+          <t>-1,76; 16,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 5,79</t>
+          <t>-5,27; 4,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 6,19</t>
+          <t>-4,74; 5,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,62</t>
+          <t>-2,69; 8,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,89</t>
+          <t>-0,64; 14,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,31</t>
+          <t>-5,6; 1,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 3,31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 7,14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 13,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-81,62%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,67%</t>
+          <t>-50,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,92%</t>
+          <t>185,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>-22,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-48,08%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>166,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>-51,55%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-12,01%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61,19%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>174,2%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1422,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 570,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,24; 123,26</t>
+          <t>-70,31; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 286,23</t>
+          <t>-100,0; 411,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,01; 277,69</t>
+          <t>-89,57; 402,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 49,35</t>
+          <t>-61,84; 651,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 124,42</t>
+          <t>-35,72; 1227,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 175,2</t>
+          <t>-100,0; 116,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-82,69; 223,41</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-48,28; 435,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 851,38</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,57</t>
+          <t>-0,59; 13,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,82</t>
+          <t>-3,77; 8,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 0,69</t>
+          <t>-6,39; 2,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,03</t>
+          <t>-0,36; 15,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 5,4</t>
+          <t>-5,61; 8,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,81</t>
+          <t>-6,03; 7,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 5,22</t>
+          <t>-5,6; 8,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,13</t>
+          <t>2,92; 20,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,59</t>
+          <t>-0,99; 9,08</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 6,18</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 3,52</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 15,09</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>129,38%</t>
+          <t>226,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>70,17%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-69,01%</t>
+          <t>-51,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>251,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>188,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>87,49%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>36,48%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>202,2%</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1688,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,58; 1131,42</t>
+          <t>-69,94; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,76; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,32 +1703,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-61,86; 177,32</t>
+          <t>-71,13; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 184,28</t>
+          <t>-67,49; 254,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 321,8</t>
+          <t>-69,59; 235,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 206,55</t>
+          <t>-71,35; 307,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 159,29</t>
+          <t>14,94; 641,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 188,43</t>
+          <t>-25,85; 411,56</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-49,48; 264,07</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-69,86; 152,94</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>36,39; 645,0</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9,69</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,46</t>
+          <t>0,0; 9,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 23,56</t>
+          <t>5,83; 37,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,53</t>
+          <t>2,92; 15,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 13,82</t>
+          <t>1,7; 16,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 11,53</t>
+          <t>-5,29; 15,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,8; 19,74</t>
+          <t>-5,45; 11,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,17</t>
+          <t>-2,85; 18,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 15,49</t>
+          <t>-6,49; 12,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,9</t>
+          <t>-1,52; 7,89</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 25,23</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 14,84</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 10,68</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>168,94%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1024,25%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>593,14%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>190,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>140,66%</t>
+          <t>69,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>296,03%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>183,08%</t>
+          <t>125,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>326,64%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>358,21%</t>
+          <t>136,56%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>428,11%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>337,43%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>218,13%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1979,47 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 1095,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 812,71</t>
+          <t>-77,57; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>34,45; 1451,31</t>
+          <t>-94,64; 758,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,16; 891,24</t>
+          <t>-56,59; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>53,33; 1489,41</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>84,94; 1276,59</t>
+          <t>-57,92; 1119,99</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>9,83; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 1721,3</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-48,01; 1366,05</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 8,36</t>
+          <t>-5,4; 13,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 7,97</t>
+          <t>-5,43; 15,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 7,64</t>
+          <t>-2,81; 16,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 16,63</t>
+          <t>-2,51; 22,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 9,09</t>
+          <t>-7,71; 13,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 20,09</t>
+          <t>-5,05; 18,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,95</t>
+          <t>-3,43; 22,58</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,24</t>
+          <t>3,34; 35,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 13,44</t>
+          <t>-4,98; 8,89</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 13,78</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 17,78</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 25,38</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>109,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>181,01%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>199,78%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>102,75%</t>
+          <t>261,97%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>154,1%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>133,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>301,31%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>100,9%</t>
+          <t>52,47%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>111,03%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>151,85%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>310,31%</t>
         </is>
       </c>
     </row>
@@ -1876,42 +2245,57 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-82,97; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-87,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 794,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,12; 382,28</t>
+          <t>-80,77; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 879,38</t>
+          <t>-65,67; 1014,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 443,63</t>
+          <t>-60,03; 1122,94</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 266,53</t>
+          <t>2,78; 1467,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 470,21</t>
+          <t>-79,97; 483,84</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-56,38; 814,0</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-32,95; 1138,46</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>20,29; 1395,04</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
           <t>0,46</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,15</t>
+          <t>-0,92; 3,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,38</t>
+          <t>1,84; 9,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,18</t>
+          <t>0,3; 5,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,8</t>
+          <t>1,87; 7,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,07</t>
+          <t>-2,81; 3,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,09</t>
+          <t>-0,9; 6,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,8</t>
+          <t>-2,22; 4,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,25</t>
+          <t>4,79; 14,07</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,9</t>
+          <t>-1,27; 3,05</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 6,29</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 4,25</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 9,73</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>122,02%</t>
+          <t>292,52%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>161,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>288,63%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>170,46%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>99,75%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>49,72%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>188,75%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 189,25</t>
+          <t>-42,85; 534,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3,77; 423,46</t>
+          <t>31,23; 1330,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 268,36</t>
+          <t>-3,55; 826,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 130,06</t>
+          <t>53,71; 1261,48</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 147,66</t>
+          <t>-41,63; 98,46</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>6,87; 173,24</t>
+          <t>-13,78; 154,91</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 100,81</t>
+          <t>-30,6; 128,17</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>15,71; 149,33</t>
+          <t>64,15; 358,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,25; 140,09</t>
+          <t>-27,37; 115,31</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>22,19; 231,74</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 170,55</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>82,91; 376,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
